--- a/biology/Zoologie/Agreste_ivoirin/Agreste_ivoirin.xlsx
+++ b/biology/Zoologie/Agreste_ivoirin/Agreste_ivoirin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudochazara anthelea
 L’Agreste ivoirin (Pseudochazara  anthelea) est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Satyrinae et du genre Pseudochazara.
@@ -512,17 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudochazara  anthelea a été nommé par  Jakob Hübner en 1845.
-Synonymes : Hipparchia anthelea ; [Otakar Kudrna][1].
-Sous-espèces
-Pseudochazara anthelea amalthea (Frivaldzky, 1845) ou Pseudochazara amalthea en Grèce[2].
-Pseudochazara anthelea schawerdae (Fruhstorfer, 1908)
-Pseudochazara anthelea selcuki Van Oorschot, 1987 [1].
-Pseudochazara anthelea amalthea est considéré par certains comme une espèce distincte Pseudochazara amalthea.
-Noms vernaculaires
-L'Agreste ivoirin se nomme White-banded Grayling en anglais, Αιγαιακή χαζάρα en grec et Anadolu Yalancıcadısı en turc[1],[3],[4].
+Synonymes : Hipparchia anthelea ; [Otakar Kudrna].
 </t>
         </is>
       </c>
@@ -548,13 +555,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Agreste ivoirin est un papillon marron avec une large bande postdiscale ivoire chez le mâle, orangée à ivoire chez la femelle, marquée de nervures foncées et ses ailes sont bordées d'une frange entrecoupée. L'aile antérieure, porte deux ocelles foncés pupillés de blanc dont un à l'apex et deux points postdiscaux blancs en e3 et e4.
-Le revers, plus terne, présente les mêmes deux ocelles aux antérieures sur une bande ivoire alors que les postérieures sont marron clair terne.
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudochazara anthelea amalthea (Frivaldzky, 1845) ou Pseudochazara amalthea en Grèce.
+Pseudochazara anthelea schawerdae (Fruhstorfer, 1908)
+Pseudochazara anthelea selcuki Van Oorschot, 1987 .
+Pseudochazara anthelea amalthea est considéré par certains comme une espèce distincte Pseudochazara amalthea.
 </t>
         </is>
       </c>
@@ -580,15 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération, de mi-mai et juillet[2].
-Plantes hôtes
-Les plantes hôtes sont des graminées.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste ivoirin se nomme White-banded Grayling en anglais, Αιγαιακή χαζάρα en grec et Anadolu Yalancıcadısı en turc.
 </t>
         </is>
       </c>
@@ -614,15 +632,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste ivoirin est un papillon marron avec une large bande postdiscale ivoire chez le mâle, orangée à ivoire chez la femelle, marquée de nervures foncées et ses ailes sont bordées d'une frange entrecoupée. L'aile antérieure, porte deux ocelles foncés pupillés de blanc dont un à l'apex et deux points postdiscaux blancs en e3 et e4.
+Le revers, plus terne, présente les mêmes deux ocelles aux antérieures sur une bande ivoire alors que les postérieures sont marron clair terne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agreste_ivoirin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_ivoirin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération, de mi-mai et juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agreste_ivoirin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_ivoirin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des graminées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agreste_ivoirin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_ivoirin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'Agreste ivoirin est présent en Albanie, Macédoine, Bulgarie, Crète, Grèce et iles Égéennes, Chypre, en Turquie, et dans le nord-est de l'Irak[1],[2].
-Biotope
-Il réside sur des pentes sèches.
-Protection</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste ivoirin est présent en Albanie, Macédoine, Bulgarie, Crète, Grèce et iles Égéennes, Chypre, en Turquie, et dans le nord-est de l'Irak,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agreste_ivoirin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_ivoirin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside sur des pentes sèches.
+</t>
         </is>
       </c>
     </row>
